--- a/biology/Médecine/Willie_van_Niekerk/Willie_van_Niekerk.xlsx
+++ b/biology/Médecine/Willie_van_Niekerk/Willie_van_Niekerk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Willem (Willie) Abraham van Niekerk (né le 29 juin 1937 à Pretoria, Union de l'Afrique du Sud et mort le 8 août 2009),  est un médecin, professeur universitaire, spécialiste en cytologie, cytogénétique, gynécologie, et obstétrique, ainsi qu'un homme politique d'Afrique du Sud, ministre de la Santé et du Développement dans le gouvernement de Pieter Botha de 1985 à 1989.  
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Willie van Niekerk nait à Pretoria et passe la majeure partie de sa jeunesse dans la ferme familiale de Poortjie située dans le district de Theunissen, province de l'État libre d'Orange.  
 Après le lycée, il poursuit des études et obtient un diplôme de Bachelors of Medicine and Surgery de l'université de Pretoria (1959). Après avoir été brièvement chercheur pour la Roswell Park Memorial Cancer Institute à Buffalo, État de New York aux États-Unis, il revient en Afrique du Sud (1960) où il prend le poste de chef du service des inscriptions au département d'obstétrique et de gynécologie de l'université de Pretoria. 
